--- a/public/monitor-sample-upload.xlsx
+++ b/public/monitor-sample-upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB9DEB-6BC2-524F-B078-7A5636CB38B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA87C840-CA84-B740-9075-EC67F4900B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Dell</t>
   </si>
@@ -78,21 +78,6 @@
   </si>
   <si>
     <t>Màn hình Dell</t>
-  </si>
-  <si>
-    <t>Địa Chỉ IP (ip)</t>
-  </si>
-  <si>
-    <t>10.1.4.2</t>
-  </si>
-  <si>
-    <t>10.1.4.3</t>
-  </si>
-  <si>
-    <t>10.1.4.4</t>
-  </si>
-  <si>
-    <t>10.1.4.5</t>
   </si>
   <si>
     <t>Máy in HP 501</t>
@@ -504,165 +489,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAED9B37-DC91-F646-B2F5-9F1FFDAF461F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>4</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1234566</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1234566</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="1">
         <v>1234567</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4">
+      <c r="G3" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="1">
         <v>1234568</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4">
+      <c r="G4" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="1">
         <v>1234569</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4">
+      <c r="G5" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/monitor-sample-upload.xlsx
+++ b/public/monitor-sample-upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA87C840-CA84-B740-9075-EC67F4900B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89782ABA-57E0-2041-91D1-B992050BA085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Dell</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Máy in HP 501</t>
+  </si>
+  <si>
+    <t>Phòng (room)</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAED9B37-DC91-F646-B2F5-9F1FFDAF461F}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -501,12 +507,12 @@
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="5" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -523,13 +529,16 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -545,14 +554,17 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -568,14 +580,17 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -591,14 +606,17 @@
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -614,19 +632,23 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
